--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartMachineConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22845" windowHeight="11640"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -25,9 +25,6 @@
     <t>外网地址</t>
   </si>
   <si>
-    <t>守护进程端口</t>
-  </si>
-  <si>
     <t>守护进程外网端口</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
   </si>
   <si>
     <t>WatcherPort</t>
-  </si>
-  <si>
-    <t>WatcherOutPort</t>
   </si>
   <si>
     <t>int</t>
@@ -1090,25 +1084,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:L9"/>
+  <dimension ref="C1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.275" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.0916666666667" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.275" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.275" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="22" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.0916666666667" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2727272727273" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.0909090909091" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.2727272727273" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.0909090909091" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="3:5">
@@ -1121,7 +1114,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="3:7">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="3:6">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1134,106 +1127,93 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="3:7">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="3:6">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="3:6">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="3:7">
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="3:10">
+    <row r="6" s="2" customFormat="1" spans="3:9">
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5">
         <v>20000</v>
       </c>
-      <c r="G6" s="5">
-        <v>19999</v>
+      <c r="H6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
+    <row r="7" s="1" customFormat="1" ht="14" spans="3:9">
       <c r="C7" s="3"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:12">
+    <row r="8" s="1" customFormat="1" ht="14" spans="3:11">
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:12">
+    <row r="9" s="1" customFormat="1" ht="14" spans="3:11">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
